--- a/artfynd/A 6041-2025 artfynd.xlsx
+++ b/artfynd/A 6041-2025 artfynd.xlsx
@@ -1035,7 +1035,7 @@
         <v>130990069</v>
       </c>
       <c r="B5" t="n">
-        <v>96599</v>
+        <v>96603</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>130991521</v>
       </c>
       <c r="B6" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>130993250</v>
       </c>
       <c r="B7" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/artfynd/A 6041-2025 artfynd.xlsx
+++ b/artfynd/A 6041-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1351,6 +1351,108 @@
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131073777</v>
+      </c>
+      <c r="B8" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Stötetorpet, Stötetorpet, Boh</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>311113</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6410575</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Kungälv</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Bohuslän</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Harestad</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Linus Lundin</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Linus Lundin</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 6041-2025 artfynd.xlsx
+++ b/artfynd/A 6041-2025 artfynd.xlsx
@@ -1241,7 +1241,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130993250</v>
+        <v>130992753</v>
       </c>
       <c r="B7" t="n">
         <v>57881</v>
@@ -1272,12 +1272,12 @@
       <c r="I7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Stötetorpet, Stötetorpet, Boh</t>
+          <t>Skansen, Skansen, Boh</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:53</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:53</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 6041-2025 artfynd.xlsx
+++ b/artfynd/A 6041-2025 artfynd.xlsx
@@ -1241,7 +1241,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130992753</v>
+        <v>130993250</v>
       </c>
       <c r="B7" t="n">
         <v>57881</v>
@@ -1272,12 +1272,12 @@
       <c r="I7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Skansen, Skansen, Boh</t>
+          <t>Stötetorpet, Stötetorpet, Boh</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 6041-2025 artfynd.xlsx
+++ b/artfynd/A 6041-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1453,6 +1453,112 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131153866</v>
+      </c>
+      <c r="B9" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Korseberget, Boh</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>311201</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6410515</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Kungälv</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Bohuslän</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Harestad</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Inspelad i fält med en Audiomoth inspelningsapparat.</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Linus Lundin</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Linus Lundin</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 6041-2025 artfynd.xlsx
+++ b/artfynd/A 6041-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY9"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1559,6 +1559,124 @@
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131204141</v>
+      </c>
+      <c r="B10" t="n">
+        <v>58321</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>102999</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Björktrast</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Turdus pilaris</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>passiv ljudinspelning</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Korseberget, Boh</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>311219</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6410570</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Kungälv</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Bohuslän</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Harestad</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Inspelad i fält med Audiomoth ljudbox.</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Linus Lundin</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Linus Lundin</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 6041-2025 artfynd.xlsx
+++ b/artfynd/A 6041-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,7 +1035,7 @@
         <v>130990069</v>
       </c>
       <c r="B5" t="n">
-        <v>96603</v>
+        <v>96604</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1677,6 +1677,134 @@
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131223036</v>
+      </c>
+      <c r="B11" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>passiv ljudinspelning</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Korseberget, Boh</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>311091</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6410588</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Kungälv</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Bohuslän</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Harestad</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Inspelad i fält på platsen med en Audiomoth  inspelningsapparat</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Linus Lundin</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Linus Lundin</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 6041-2025 artfynd.xlsx
+++ b/artfynd/A 6041-2025 artfynd.xlsx
@@ -1035,7 +1035,7 @@
         <v>130990069</v>
       </c>
       <c r="B5" t="n">
-        <v>96604</v>
+        <v>96605</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>131204141</v>
       </c>
       <c r="B10" t="n">
-        <v>58321</v>
+        <v>58322</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
